--- a/biology/Botanique/Salix_pauciflora/Salix_pauciflora.xlsx
+++ b/biology/Botanique/Salix_pauciflora/Salix_pauciflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix pauciflora est une espèce de saule arbustif de la famille des Salicaceae, originaire d'Extrême-Orient.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Aucune sous-espèce n'est énumérée dans Catalogue of Life[1].
-Synonymes[1]
-Salix nummularia Anderss.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune sous-espèce n'est énumérée dans Catalogue of Life.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Salix_pauciflora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salix_pauciflora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes[1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Salix nummularia Anderss.
 Salix herbacea var. flabellaris Andersson ;
 Salix nummularia subsp. tundricola (Schljak.) A. &amp; D. Löve ;
 Salix polyadenia Hand.-Mazz. ;
@@ -528,35 +580,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Salix_pauciflora</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Salix_pauciflora</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix pauciflora[1],[2],[3] porte des branches minces, pubescentes d'abord, devenant brun rouge et glabres avec l'âge. Les feuilles sont d'obovales à elliptiques, elles mesurent 6-12 X 3-1 et sont obtuses, à la base arrondie, entières, vert brillant dessus, vert pâle dessous. Les pétioles font jusqu'à 4 mm de long. Les chatons, souvent avec peu de fleurs, apparaissent sur un court pédoncule feuillu. Les chatons mâles sont globuleux et mesurent jusqu'à 1 cm de long. Le chaton femelle est un peu plus long, de couleur rougeâtre dans la moitié supérieure, velu à l'intérieur et sur les marges[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix pauciflora porte des branches minces, pubescentes d'abord, devenant brun rouge et glabres avec l'âge. Les feuilles sont d'obovales à elliptiques, elles mesurent 6-12 X 3-1 et sont obtuses, à la base arrondie, entières, vert brillant dessus, vert pâle dessous. Les pétioles font jusqu'à 4 mm de long. Les chatons, souvent avec peu de fleurs, apparaissent sur un court pédoncule feuillu. Les chatons mâles sont globuleux et mesurent jusqu'à 1 cm de long. Le chaton femelle est un peu plus long, de couleur rougeâtre dans la moitié supérieure, velu à l'intérieur et sur les marges.
 Ce saule pousse au Japon. C'est une espèce alpine d'Hokkaido (Mont Daisetsu).
-Les synonymes sont enregistrés en Alaska, ouest  de la Sibérie, centre de la Sibérie, extrême est de la Russie, Chine (Jilin), Mongolie,Corée du Nord, Japon (Hokkaido)[1].
+Les synonymes sont enregistrés en Alaska, ouest  de la Sibérie, centre de la Sibérie, extrême est de la Russie, Chine (Jilin), Mongolie,Corée du Nord, Japon (Hokkaido).
 </t>
         </is>
       </c>
